--- a/Testing data/Book.xlsx
+++ b/Testing data/Book.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Collage\4th Year\Final Term\مشروع التخرج\Arabic-Morphologial-Analyzer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Collage\4th Year\Final Term\مشروع التخرج\Arabic-Morphologial-Analyzer\Testing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AEA145-D9BA-4992-BE7E-B3351460B0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7696FB26-C175-4D32-9C97-4559D23575F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{38E91034-D51F-443D-A4B7-3C08A48A92AE}"/>
   </bookViews>
@@ -240,9 +240,6 @@
     <t>عون</t>
   </si>
   <si>
-    <t>فدي</t>
-  </si>
-  <si>
     <t>قرب</t>
   </si>
   <si>
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>Root</t>
+  </si>
+  <si>
+    <t>فيد</t>
   </si>
 </sst>
 </file>
@@ -1002,18 +1002,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BCD73-F580-4EF0-B11C-D4DA28741152}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
         <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -1221,7 +1221,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -1237,7 +1237,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -1245,7 +1245,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -1253,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -1277,7 +1277,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -1285,7 +1285,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -1301,7 +1301,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -1309,7 +1309,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -1317,7 +1317,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -1325,7 +1325,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -1333,7 +1333,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -1341,7 +1341,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -1349,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -1357,7 +1357,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -1373,7 +1373,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -1381,7 +1381,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -1389,7 +1389,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -1397,7 +1397,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -1405,7 +1405,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -1418,167 +1418,167 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" t="s">
         <v>89</v>
-      </c>
-      <c r="B52" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
         <v>91</v>
-      </c>
-      <c r="B53" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
         <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" t="s">
         <v>95</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" t="s">
         <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" t="s">
         <v>99</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
         <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
         <v>103</v>
-      </c>
-      <c r="B59" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
         <v>105</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>106</v>
+      </c>
+      <c r="B61" t="s">
         <v>107</v>
-      </c>
-      <c r="B61" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
         <v>109</v>
-      </c>
-      <c r="B62" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
         <v>111</v>
-      </c>
-      <c r="B63" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
         <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
         <v>115</v>
-      </c>
-      <c r="B65" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
         <v>117</v>
-      </c>
-      <c r="B66" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
         <v>119</v>
-      </c>
-      <c r="B67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
         <v>121</v>
-      </c>
-      <c r="B68" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
         <v>123</v>
-      </c>
-      <c r="B69" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
         <v>125</v>
-      </c>
-      <c r="B70" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
         <v>127</v>
-      </c>
-      <c r="B71" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
         <v>68</v>
@@ -1586,314 +1586,314 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" t="s">
         <v>130</v>
-      </c>
-      <c r="B73" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" t="s">
         <v>132</v>
-      </c>
-      <c r="B74" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" t="s">
         <v>134</v>
-      </c>
-      <c r="B75" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" t="s">
         <v>136</v>
-      </c>
-      <c r="B76" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
         <v>138</v>
-      </c>
-      <c r="B77" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" t="s">
         <v>140</v>
-      </c>
-      <c r="B78" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
         <v>142</v>
-      </c>
-      <c r="B79" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" t="s">
         <v>144</v>
-      </c>
-      <c r="B80" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
         <v>146</v>
-      </c>
-      <c r="B81" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
         <v>148</v>
-      </c>
-      <c r="B82" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>149</v>
+      </c>
+      <c r="B83" t="s">
         <v>150</v>
-      </c>
-      <c r="B83" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
         <v>152</v>
-      </c>
-      <c r="B84" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
         <v>154</v>
-      </c>
-      <c r="B85" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
         <v>156</v>
-      </c>
-      <c r="B86" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" t="s">
         <v>158</v>
-      </c>
-      <c r="B87" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
         <v>160</v>
-      </c>
-      <c r="B88" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
         <v>164</v>
-      </c>
-      <c r="B90" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" t="s">
         <v>167</v>
-      </c>
-      <c r="B92" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
         <v>169</v>
-      </c>
-      <c r="B93" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
         <v>171</v>
-      </c>
-      <c r="B94" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>172</v>
+      </c>
+      <c r="B95" t="s">
         <v>173</v>
-      </c>
-      <c r="B95" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" t="s">
         <v>175</v>
-      </c>
-      <c r="B96" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
         <v>177</v>
-      </c>
-      <c r="B97" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" t="s">
         <v>179</v>
-      </c>
-      <c r="B98" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>180</v>
+      </c>
+      <c r="B99" t="s">
         <v>181</v>
-      </c>
-      <c r="B99" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>182</v>
+      </c>
+      <c r="B100" t="s">
         <v>183</v>
-      </c>
-      <c r="B100" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>184</v>
+      </c>
+      <c r="B101" t="s">
         <v>185</v>
-      </c>
-      <c r="B101" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>186</v>
+      </c>
+      <c r="B102" t="s">
         <v>187</v>
-      </c>
-      <c r="B102" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
         <v>189</v>
-      </c>
-      <c r="B103" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
+        <v>190</v>
+      </c>
+      <c r="B104" t="s">
         <v>191</v>
-      </c>
-      <c r="B104" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" t="s">
         <v>193</v>
-      </c>
-      <c r="B105" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" t="s">
         <v>195</v>
-      </c>
-      <c r="B106" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" t="s">
         <v>199</v>
-      </c>
-      <c r="B108" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
+        <v>203</v>
+      </c>
+      <c r="B111" t="s">
         <v>204</v>
-      </c>
-      <c r="B111" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>
